--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datastory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480870D-BFB5-4272-B9E5-4C32DF4EB07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A4FE0-A57D-4D27-9D33-BBC54BAB2EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="1596" windowWidth="18696" windowHeight="10116" xr2:uid="{E1DAA886-3C97-40B8-BE4A-DDE9C5B9AFFA}"/>
+    <workbookView xWindow="1644" yWindow="1212" windowWidth="18696" windowHeight="10116" xr2:uid="{E1DAA886-3C97-40B8-BE4A-DDE9C5B9AFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>First</t>
   </si>
@@ -43,94 +43,109 @@
     <t>Last</t>
   </si>
   <si>
-    <t>Rounak</t>
-  </si>
-  <si>
-    <t>Mehta</t>
-  </si>
-  <si>
-    <t>Itamar</t>
-  </si>
-  <si>
-    <t>Afek</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Posse</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Yee</t>
-  </si>
-  <si>
-    <t>Hemali</t>
-  </si>
-  <si>
-    <t>Majithia</t>
-  </si>
-  <si>
-    <t>Hao</t>
-  </si>
-  <si>
-    <t>Zhou</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
-    <t>Payam</t>
-  </si>
-  <si>
-    <t>Cherchian</t>
-  </si>
-  <si>
-    <t>Jayesh</t>
-  </si>
-  <si>
-    <t>Govindarajan</t>
-  </si>
-  <si>
-    <t>Shankar</t>
-  </si>
-  <si>
-    <t>Vedaraman</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Forrester</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Huang</t>
-  </si>
-  <si>
-    <t>Saptarshi</t>
-  </si>
-  <si>
-    <t>Ghose</t>
+    <t>Anjan</t>
+  </si>
+  <si>
+    <t>Goswami</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>Binjie</t>
+  </si>
+  <si>
+    <t>Lai</t>
+  </si>
+  <si>
+    <t>Nopparat</t>
+  </si>
+  <si>
+    <t>Leelavanich</t>
+  </si>
+  <si>
+    <t>Yuting</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Ivo</t>
+  </si>
+  <si>
+    <t>Manolov</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Arava</t>
+  </si>
+  <si>
+    <t>Rajat</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Nikhita</t>
+  </si>
+  <si>
+    <t>Koul</t>
+  </si>
+  <si>
+    <t>Nibedita</t>
+  </si>
+  <si>
+    <t>Samal</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Hawks</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Ramalingam</t>
+  </si>
+  <si>
+    <t>Qilong</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Challis</t>
   </si>
 </sst>
 </file>
@@ -506,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012C601-33F0-42F2-A707-C5C9D893A2A0}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -567,79 +582,103 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datastory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A4FE0-A57D-4D27-9D33-BBC54BAB2EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35895A3-09F7-474A-9A4D-2CF042E4C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1644" yWindow="1212" windowWidth="18696" windowHeight="10116" xr2:uid="{E1DAA886-3C97-40B8-BE4A-DDE9C5B9AFFA}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>First</t>
   </si>
@@ -43,109 +42,214 @@
     <t>Last</t>
   </si>
   <si>
-    <t>Anjan</t>
-  </si>
-  <si>
-    <t>Goswami</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Hilton</t>
-  </si>
-  <si>
-    <t>Binjie</t>
-  </si>
-  <si>
-    <t>Lai</t>
-  </si>
-  <si>
-    <t>Nopparat</t>
-  </si>
-  <si>
-    <t>Leelavanich</t>
-  </si>
-  <si>
-    <t>Yuting</t>
-  </si>
-  <si>
-    <t>Xiang</t>
-  </si>
-  <si>
     <t>Wu</t>
   </si>
   <si>
-    <t>Ivo</t>
-  </si>
-  <si>
-    <t>Manolov</t>
-  </si>
-  <si>
-    <t>Sai</t>
-  </si>
-  <si>
-    <t>Arava</t>
-  </si>
-  <si>
-    <t>Rajat</t>
-  </si>
-  <si>
-    <t>Jain</t>
-  </si>
-  <si>
-    <t>Nikhita</t>
-  </si>
-  <si>
-    <t>Koul</t>
-  </si>
-  <si>
-    <t>Nibedita</t>
-  </si>
-  <si>
-    <t>Samal</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Hawks</t>
-  </si>
-  <si>
-    <t>Kunal</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Ramalingam</t>
-  </si>
-  <si>
-    <t>Qilong</t>
-  </si>
-  <si>
-    <t>Yuan</t>
-  </si>
-  <si>
     <t>Christopher</t>
   </si>
   <si>
-    <t>Challis</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Science Manager</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Head of Data Science and Advanced Analytics</t>
+  </si>
+  <si>
+    <t>Sherry</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Director Data Science, Globale Head of Analytics and Insights</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Lum</t>
+  </si>
+  <si>
+    <t>Data Science and Analytics Leader</t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>Unercat</t>
+  </si>
+  <si>
+    <t>Manager of Data Science</t>
+  </si>
+  <si>
+    <t>Nevena</t>
+  </si>
+  <si>
+    <t>Lalic</t>
+  </si>
+  <si>
+    <t>Senior Manager of Data Science</t>
+  </si>
+  <si>
+    <t>Sampath</t>
+  </si>
+  <si>
+    <t>Rudravaram</t>
+  </si>
+  <si>
+    <t>Head of Data Science and Analytics</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Saboowala</t>
+  </si>
+  <si>
+    <t>Data Science and Engineering Manager</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Skinner</t>
+  </si>
+  <si>
+    <t>Director of Ad Technology, Measurement and Data Science</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Director of Data Science</t>
+  </si>
+  <si>
+    <t>Saunders</t>
+  </si>
+  <si>
+    <t>Data and Analytics Leader</t>
+  </si>
+  <si>
+    <t>Daliana</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Martins</t>
+  </si>
+  <si>
+    <t>Head of Data Engineering</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Bridwell</t>
+  </si>
+  <si>
+    <t>Data Science and BI Manager</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Garg</t>
+  </si>
+  <si>
+    <t>Milanie</t>
+  </si>
+  <si>
+    <t>Cleere</t>
+  </si>
+  <si>
+    <t>Principal Data Science Manager</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Kelch</t>
+  </si>
+  <si>
+    <t>Director of Product Management, Data, and Science</t>
+  </si>
+  <si>
+    <t>Janak</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Emmy</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Analytics and Data Science Manager</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Nanaware</t>
+  </si>
+  <si>
+    <t>Sr. Manager Data Science</t>
+  </si>
+  <si>
+    <t>Rajneesh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Ficenec</t>
+  </si>
+  <si>
+    <t>Data Science and Engineering Leader</t>
+  </si>
+  <si>
+    <t>Augusta</t>
+  </si>
+  <si>
+    <t>Niles</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>Data Science Manager III</t>
   </si>
 </sst>
 </file>
@@ -175,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,13 +302,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,164 +639,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012C601-33F0-42F2-A707-C5C9D893A2A0}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datastory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35895A3-09F7-474A-9A4D-2CF042E4C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893F2D9-8D32-4A5A-8FC7-6E3DF8CD3E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="1212" windowWidth="18696" windowHeight="10116" xr2:uid="{E1DAA886-3C97-40B8-BE4A-DDE9C5B9AFFA}"/>
+    <workbookView xWindow="0" yWindow="2244" windowWidth="18696" windowHeight="10116" xr2:uid="{E1DAA886-3C97-40B8-BE4A-DDE9C5B9AFFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>First</t>
   </si>
@@ -42,214 +42,238 @@
     <t>Last</t>
   </si>
   <si>
-    <t>Wu</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Data Science Manager</t>
+  </si>
+  <si>
     <t>Senior Data Scientist</t>
   </si>
   <si>
-    <t>Data Science Manager</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Head of Data Science and Advanced Analytics</t>
-  </si>
-  <si>
-    <t>Sherry</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Director Data Science, Globale Head of Analytics and Insights</t>
-  </si>
-  <si>
-    <t>Kirsten</t>
-  </si>
-  <si>
-    <t>Lum</t>
-  </si>
-  <si>
-    <t>Data Science and Analytics Leader</t>
-  </si>
-  <si>
-    <t>Saurabh</t>
-  </si>
-  <si>
-    <t>Unercat</t>
+    <t>Principal Data Scientist</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Yuqi</t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>Elad</t>
+  </si>
+  <si>
+    <t>Ziklik</t>
+  </si>
+  <si>
+    <t>VP of AI and Data Science Services</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kaushal</t>
+  </si>
+  <si>
+    <t>Kurapati</t>
+  </si>
+  <si>
+    <t>Group Leader of Machine Learning and Data Science</t>
+  </si>
+  <si>
+    <t>Ranjit</t>
+  </si>
+  <si>
+    <t>Chacko</t>
+  </si>
+  <si>
+    <t>Director of Data Science</t>
+  </si>
+  <si>
+    <t>Anupama</t>
+  </si>
+  <si>
+    <t>Singhvi</t>
+  </si>
+  <si>
+    <t>Director Program Management and Analytics</t>
+  </si>
+  <si>
+    <t>Shekhar</t>
+  </si>
+  <si>
+    <t>Agrawal</t>
+  </si>
+  <si>
+    <t>Senior Director Data Science</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>Senior Director of Retail Data Science</t>
+  </si>
+  <si>
+    <t>Tirthankar</t>
+  </si>
+  <si>
+    <t>Lahiri</t>
+  </si>
+  <si>
+    <t>Senior Vice President, Dat and In-Memory</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>Director of Applied Data Science</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Venkata</t>
+  </si>
+  <si>
+    <t>Duvvuri</t>
+  </si>
+  <si>
+    <t>Data Science and AI Leader</t>
+  </si>
+  <si>
+    <t>Jyothi</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Director of Engineering and Data Platforms</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Rusch</t>
+  </si>
+  <si>
+    <t>Senior Director of Identity and Audience Modeling</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Vice President of Engineering, AI, and Data Science</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Goodman</t>
   </si>
   <si>
     <t>Manager of Data Science</t>
   </si>
   <si>
-    <t>Nevena</t>
-  </si>
-  <si>
-    <t>Lalic</t>
+    <t>Bertalan</t>
+  </si>
+  <si>
+    <t>Danko</t>
+  </si>
+  <si>
+    <t>Director of Marketing in Data Science</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Kunisetty</t>
+  </si>
+  <si>
+    <t>Vice President of Engineering, IoT Analytics and Applications Cloud</t>
+  </si>
+  <si>
+    <t>Pallika</t>
+  </si>
+  <si>
+    <t>Kanani</t>
+  </si>
+  <si>
+    <t>Data Science Lead</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Hornick</t>
+  </si>
+  <si>
+    <t>Senior Director of Data Science and Machine Learning</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Lemos</t>
   </si>
   <si>
     <t>Senior Manager of Data Science</t>
   </si>
   <si>
-    <t>Sampath</t>
-  </si>
-  <si>
-    <t>Rudravaram</t>
-  </si>
-  <si>
-    <t>Head of Data Science and Analytics</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Saboowala</t>
-  </si>
-  <si>
-    <t>Data Science and Engineering Manager</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Skinner</t>
-  </si>
-  <si>
-    <t>Director of Ad Technology, Measurement and Data Science</t>
-  </si>
-  <si>
-    <t>Kareem</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Director of Data Science</t>
-  </si>
-  <si>
-    <t>Saunders</t>
-  </si>
-  <si>
-    <t>Data and Analytics Leader</t>
-  </si>
-  <si>
-    <t>Daliana</t>
-  </si>
-  <si>
-    <t>Liu</t>
-  </si>
-  <si>
-    <t>Renato</t>
-  </si>
-  <si>
-    <t>Martins</t>
-  </si>
-  <si>
-    <t>Head of Data Engineering</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Bridwell</t>
-  </si>
-  <si>
-    <t>Data Science and BI Manager</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>Garg</t>
-  </si>
-  <si>
-    <t>Milanie</t>
-  </si>
-  <si>
-    <t>Cleere</t>
-  </si>
-  <si>
-    <t>Principal Data Science Manager</t>
-  </si>
-  <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Kelch</t>
-  </si>
-  <si>
-    <t>Director of Product Management, Data, and Science</t>
-  </si>
-  <si>
-    <t>Janak</t>
-  </si>
-  <si>
-    <t>Mayer</t>
-  </si>
-  <si>
-    <t>Emmy</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Analytics and Data Science Manager</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Nanaware</t>
-  </si>
-  <si>
-    <t>Sr. Manager Data Science</t>
-  </si>
-  <si>
-    <t>Rajneesh</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Bo</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Ficenec</t>
-  </si>
-  <si>
-    <t>Data Science and Engineering Leader</t>
-  </si>
-  <si>
-    <t>Augusta</t>
-  </si>
-  <si>
-    <t>Niles</t>
-  </si>
-  <si>
-    <t>Wei</t>
-  </si>
-  <si>
-    <t>Data Science Manager III</t>
+    <t>Muru</t>
+  </si>
+  <si>
+    <t>Sinnassamy</t>
+  </si>
+  <si>
+    <t>Leader in Analytics, Data Science, Data Management</t>
+  </si>
+  <si>
+    <t>Setareh</t>
+  </si>
+  <si>
+    <t>Borjian</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Head of Data Processing Infrastructure</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Janes</t>
+  </si>
+  <si>
+    <t>Ikenna</t>
+  </si>
+  <si>
+    <t>Ivenso</t>
+  </si>
+  <si>
+    <t>Principal data Scientist</t>
   </si>
 </sst>
 </file>
@@ -639,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E012C601-33F0-42F2-A707-C5C9D893A2A0}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,18 +684,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -693,161 +717,161 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -858,84 +882,106 @@
         <v>55</v>
       </c>
       <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
